--- a/문서/Class.xlsx
+++ b/문서/Class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9C740E-C12C-4927-8DBA-91624A30830F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9015D35-3868-43EF-A5A2-A53119B1D252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8660E216-18CE-4FB6-B6D3-B56AF3FB6CDE}"/>
+    <workbookView xWindow="2445" yWindow="3090" windowWidth="23910" windowHeight="11295" xr2:uid="{8660E216-18CE-4FB6-B6D3-B56AF3FB6CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,180 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>가능함</t>
+          <t xml:space="preserve">가능함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>층</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클리어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> rank_1)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>용병</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랭크는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>층</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클리어마다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올라감</t>
         </r>
       </text>
     </comment>
@@ -419,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,22 +662,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Rank_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rank_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rank_7</t>
-  </si>
-  <si>
-    <t>Rank_9</t>
-  </si>
-  <si>
-    <t>Rank_11</t>
-  </si>
-  <si>
-    <t>Rank_13</t>
-  </si>
-  <si>
-    <t>Rank_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -888,15 +1059,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F2231-BA23-4332-AB43-78277BB25B1F}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,28 +1093,22 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
       </c>
       <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -971,8 +1136,20 @@
       <c r="I2">
         <v>10102</v>
       </c>
+      <c r="J2">
+        <v>10103</v>
+      </c>
+      <c r="K2">
+        <v>10104</v>
+      </c>
+      <c r="L2">
+        <v>10105</v>
+      </c>
+      <c r="M2">
+        <v>10111</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>201</v>
       </c>
@@ -997,8 +1174,23 @@
       <c r="H3">
         <v>10101</v>
       </c>
+      <c r="I3">
+        <v>10106</v>
+      </c>
+      <c r="J3">
+        <v>10107</v>
+      </c>
+      <c r="K3">
+        <v>10108</v>
+      </c>
+      <c r="L3">
+        <v>10109</v>
+      </c>
+      <c r="M3">
+        <v>10110</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>301</v>
       </c>
@@ -1022,6 +1214,21 @@
       </c>
       <c r="H4">
         <v>10101</v>
+      </c>
+      <c r="I4">
+        <v>10102</v>
+      </c>
+      <c r="J4">
+        <v>10104</v>
+      </c>
+      <c r="K4">
+        <v>10105</v>
+      </c>
+      <c r="L4">
+        <v>10107</v>
+      </c>
+      <c r="M4">
+        <v>10108</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Class.xlsx
+++ b/문서/Class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9015D35-3868-43EF-A5A2-A53119B1D252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E425668-D05A-443F-8886-17ADC364EA86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="3090" windowWidth="23910" windowHeight="11295" xr2:uid="{8660E216-18CE-4FB6-B6D3-B56AF3FB6CDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8660E216-18CE-4FB6-B6D3-B56AF3FB6CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
